--- a/src/test/java/com/base/sbc/selenium/style/PLM_STYLE_BOM.xlsx
+++ b/src/test/java/com/base/sbc/selenium/style/PLM_STYLE_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\space-spring\sjs_yfg_pdm\src\test\java\com\base\sbc\selenium\style\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE70386-5CB3-44AF-ADD7-8BFE384C8246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F14DAE9-2AED-45C9-AD82-5DA447F4F7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="0" windowWidth="12750" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="0" windowWidth="18045" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -1168,14 +1168,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="95.625" customWidth="1"/>
-    <col min="2" max="2" width="92.375" customWidth="1"/>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="56.25">
@@ -1224,43 +1223,43 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>224</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>225</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>228</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>229</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>58</v>
+        <v>228</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>17</v>
@@ -1268,40 +1267,40 @@
     </row>
     <row r="3" spans="1:14" ht="15">
       <c r="A3" s="2" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>17</v>
@@ -1312,43 +1311,43 @@
     </row>
     <row r="4" spans="1:14" ht="15">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>17</v>
@@ -1356,37 +1355,37 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>23</v>
@@ -1400,43 +1399,43 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>17</v>
@@ -1444,37 +1443,37 @@
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>23</v>
@@ -1491,7 +1490,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
@@ -1500,13 +1499,13 @@
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>34</v>
@@ -1532,28 +1531,28 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>38</v>
@@ -1562,13 +1561,13 @@
         <v>22</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>17</v>
@@ -1576,43 +1575,43 @@
     </row>
     <row r="10" spans="1:14" ht="15">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>17</v>
@@ -1620,43 +1619,43 @@
     </row>
     <row r="11" spans="1:14" ht="15">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>17</v>
@@ -1664,43 +1663,43 @@
     </row>
     <row r="12" spans="1:14" ht="15">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>17</v>
@@ -1708,13 +1707,13 @@
     </row>
     <row r="13" spans="1:14" ht="15">
       <c r="A13" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>17</v>
@@ -1723,28 +1722,28 @@
         <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>17</v>
@@ -1752,43 +1751,43 @@
     </row>
     <row r="14" spans="1:14" ht="15">
       <c r="A14" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>17</v>
@@ -1796,43 +1795,43 @@
     </row>
     <row r="15" spans="1:14" ht="15">
       <c r="A15" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>17</v>
@@ -1840,43 +1839,43 @@
     </row>
     <row r="16" spans="1:14" ht="15">
       <c r="A16" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>17</v>
@@ -1884,40 +1883,40 @@
     </row>
     <row r="17" spans="1:14" ht="15">
       <c r="A17" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>17</v>
@@ -1928,40 +1927,40 @@
     </row>
     <row r="18" spans="1:14" ht="15">
       <c r="A18" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>17</v>
@@ -1972,28 +1971,28 @@
     </row>
     <row r="19" spans="1:14" ht="15">
       <c r="A19" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>38</v>
@@ -2002,7 +2001,7 @@
         <v>59</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>23</v>
@@ -2016,43 +2015,43 @@
     </row>
     <row r="20" spans="1:14" ht="15">
       <c r="A20" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>17</v>
@@ -2063,22 +2062,22 @@
         <v>114</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>116</v>
@@ -2104,43 +2103,43 @@
     </row>
     <row r="22" spans="1:14" ht="15">
       <c r="A22" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>17</v>
@@ -2151,10 +2150,10 @@
         <v>124</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>17</v>
@@ -2163,10 +2162,10 @@
         <v>127</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>129</v>
@@ -2192,37 +2191,37 @@
     </row>
     <row r="24" spans="1:14" ht="15">
       <c r="A24" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>59</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>23</v>
@@ -2236,43 +2235,43 @@
     </row>
     <row r="25" spans="1:14" ht="15">
       <c r="A25" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>59</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>17</v>
@@ -2280,13 +2279,13 @@
     </row>
     <row r="26" spans="1:14" ht="15">
       <c r="A26" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>17</v>
@@ -2295,13 +2294,13 @@
         <v>82</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>38</v>
@@ -2310,13 +2309,13 @@
         <v>59</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>17</v>
@@ -2324,43 +2323,43 @@
     </row>
     <row r="27" spans="1:14" ht="15">
       <c r="A27" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>17</v>
@@ -2368,43 +2367,43 @@
     </row>
     <row r="28" spans="1:14" ht="15">
       <c r="A28" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>17</v>
@@ -2412,37 +2411,37 @@
     </row>
     <row r="29" spans="1:14" ht="15">
       <c r="A29" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>23</v>
@@ -2459,22 +2458,22 @@
         <v>160</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>163</v>
@@ -2492,7 +2491,7 @@
         <v>23</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>17</v>
@@ -2500,43 +2499,43 @@
     </row>
     <row r="31" spans="1:14" ht="15">
       <c r="A31" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>17</v>
@@ -2544,28 +2543,28 @@
     </row>
     <row r="32" spans="1:14" ht="15">
       <c r="A32" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>38</v>
@@ -2574,7 +2573,7 @@
         <v>22</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>23</v>
@@ -2588,43 +2587,43 @@
     </row>
     <row r="33" spans="1:14" ht="15">
       <c r="A33" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>17</v>
@@ -2632,43 +2631,43 @@
     </row>
     <row r="34" spans="1:14" ht="15">
       <c r="A34" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>17</v>
@@ -2679,31 +2678,31 @@
         <v>183</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>188</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>188</v>
@@ -2712,7 +2711,7 @@
         <v>23</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>17</v>
@@ -2720,43 +2719,43 @@
     </row>
     <row r="36" spans="1:14" ht="15">
       <c r="A36" s="2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>17</v>
@@ -2764,43 +2763,43 @@
     </row>
     <row r="37" spans="1:14" ht="15">
       <c r="A37" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>18</v>
+        <v>197</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>17</v>
@@ -2808,43 +2807,43 @@
     </row>
     <row r="38" spans="1:14" ht="15">
       <c r="A38" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>17</v>
@@ -2852,28 +2851,28 @@
     </row>
     <row r="39" spans="1:14" ht="15">
       <c r="A39" s="2" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>38</v>
@@ -2882,13 +2881,13 @@
         <v>59</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>17</v>
@@ -2896,43 +2895,43 @@
     </row>
     <row r="40" spans="1:14" ht="15">
       <c r="A40" s="2" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>59</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>17</v>
@@ -2940,43 +2939,43 @@
     </row>
     <row r="41" spans="1:14" ht="15">
       <c r="A41" s="2" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>59</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>17</v>
